--- a/hw/Final-ExtraCredit/GradeCalcMimic.xlsx
+++ b/hw/Final-ExtraCredit/GradeCalcMimic.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -111,25 +113,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -510,69 +517,167 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="n"/>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="4" t="n"/>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Assignments (Drop lowest)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C1" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D1" s="4">
+        <f>B1*C1</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n"/>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="7" t="n"/>
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Project 1</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="7">
+        <f>B3*C3</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="n"/>
-      <c r="B4" s="9" t="n"/>
-      <c r="C4" s="9" t="n"/>
-      <c r="D4" s="10" t="n"/>
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>Project 2</t>
+        </is>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="10">
+        <f>B4*C4</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="n"/>
-      <c r="B5" s="12" t="n"/>
-      <c r="C5" s="12" t="n"/>
-      <c r="D5" s="13" t="n"/>
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>Project 3</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" s="12" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="13">
+        <f>B5*C5</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n"/>
-      <c r="B7" s="6" t="n"/>
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Midterm</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>100</v>
+      </c>
       <c r="C7" s="14" t="n"/>
       <c r="D7" s="15" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="n"/>
-      <c r="B8" s="12" t="n"/>
-      <c r="C8" s="12" t="n"/>
-      <c r="D8" s="13" t="n"/>
+      <c r="A8" s="11" t="inlineStr">
+        <is>
+          <t>Midterm Extra Credit</t>
+        </is>
+      </c>
+      <c r="B8" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="13">
+        <f>(B7+B8)*C8</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n"/>
-      <c r="B10" s="6" t="n"/>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>100</v>
+      </c>
       <c r="C10" s="6" t="n"/>
-      <c r="D10" s="7" t="n"/>
+      <c r="D10" s="16" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="n"/>
-      <c r="B11" s="12" t="n"/>
-      <c r="C11" s="12" t="n"/>
-      <c r="D11" s="13" t="n"/>
+      <c r="A11" s="11" t="inlineStr">
+        <is>
+          <t>Final Exam Extra Credit</t>
+        </is>
+      </c>
+      <c r="B11" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" s="12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="13">
+        <f>(B10+B11)*C11</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
-      <c r="B13" s="16" t="n"/>
-      <c r="C13" s="17" t="n"/>
-      <c r="D13" s="4" t="n"/>
+      <c r="B13" s="17" t="inlineStr">
+        <is>
+          <t>Calculated Grade</t>
+        </is>
+      </c>
+      <c r="C13" s="18" t="n"/>
+      <c r="D13" s="4">
+        <f>SUM(D1:D11)</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n"/>
-      <c r="B15" s="3" t="n"/>
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>SONA</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="C15" s="3" t="n"/>
-      <c r="D15" s="4" t="n"/>
+      <c r="D15" s="19" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="16" t="n"/>
-      <c r="B17" s="17" t="n"/>
-      <c r="C17" s="17" t="n"/>
-      <c r="D17" s="4" t="n"/>
+      <c r="A17" s="17" t="inlineStr">
+        <is>
+          <t>Final Grade without Curve</t>
+        </is>
+      </c>
+      <c r="B17" s="18" t="n"/>
+      <c r="C17" s="18" t="n"/>
+      <c r="D17" s="20">
+        <f>D13+B15</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
